--- a/Kg_C.xlsx
+++ b/Kg_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,58 +446,965 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>V ry</t>
+          <t>AEF %</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Power Factor</t>
+          <t>Ukg</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Curr_R</t>
+          <t>Total M/c Stop time</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>min/doff</t>
+          <t>doffs</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Frequency (Hz)</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>doff min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>doffs</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>m/min</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>stop min</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kWh</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.0 lbs-8/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>57.09</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>80.31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23.45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>72</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>26.0 lbs-26/1 LBS CRT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26.0 lbs-26/1 LBS CRT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="H16" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="H18" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>53.04</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H20" t="n">
+        <v>27.67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>64.42</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="H21" t="n">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="H24" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="H27" t="n">
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>46.65</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>26.51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>67.34999999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="H32" t="n">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8.0 lbs-8/1 lbs CRX</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>8.0 lbs-8/1 lbs CRX</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Avg. Count : 1.02 lbs</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E35" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>292.92</v>
+      </c>
+      <c r="H35" t="n">
+        <v>19.46</v>
       </c>
     </row>
   </sheetData>
